--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il1b-Il1r1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il1b-Il1r1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.06023933333333334</v>
+        <v>1.110304666666667</v>
       </c>
       <c r="H2">
-        <v>0.180718</v>
+        <v>3.330914</v>
       </c>
       <c r="I2">
-        <v>9.651065048389373E-05</v>
+        <v>0.002248635597361828</v>
       </c>
       <c r="J2">
-        <v>9.65189777332922E-05</v>
+        <v>0.002251019941945068</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.37432</v>
+        <v>13.00733333333333</v>
       </c>
       <c r="N2">
-        <v>40.12296000000001</v>
+        <v>39.022</v>
       </c>
       <c r="O2">
-        <v>0.1019828318366699</v>
+        <v>0.1070948256796854</v>
       </c>
       <c r="P2">
-        <v>0.1077302617359031</v>
+        <v>0.1106092800596386</v>
       </c>
       <c r="Q2">
-        <v>0.8056601205866669</v>
+        <v>14.44210290088889</v>
       </c>
       <c r="R2">
-        <v>7.250941085280002</v>
+        <v>129.978926108</v>
       </c>
       <c r="S2">
-        <v>9.842429438746556E-06</v>
+        <v>0.0002408172373166001</v>
       </c>
       <c r="T2">
-        <v>1.039801473368937E-05</v>
+        <v>0.0002489836951784336</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.06023933333333334</v>
+        <v>1.110304666666667</v>
       </c>
       <c r="H3">
-        <v>0.180718</v>
+        <v>3.330914</v>
       </c>
       <c r="I3">
-        <v>9.651065048389373E-05</v>
+        <v>0.002248635597361828</v>
       </c>
       <c r="J3">
-        <v>9.65189777332922E-05</v>
+        <v>0.002251019941945068</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>288.71896</v>
       </c>
       <c r="O3">
-        <v>0.7338535627914345</v>
+        <v>0.7923813923330444</v>
       </c>
       <c r="P3">
-        <v>0.7752112289052886</v>
+        <v>0.8183844063648099</v>
       </c>
       <c r="Q3">
-        <v>5.797412557031112</v>
+        <v>106.8553362143822</v>
       </c>
       <c r="R3">
-        <v>52.17671301328001</v>
+        <v>961.6980259294401</v>
       </c>
       <c r="S3">
-        <v>7.082468470492429E-05</v>
+        <v>0.001781777005487212</v>
       </c>
       <c r="T3">
-        <v>7.482259534130763E-05</v>
+        <v>0.001842199618904064</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.06023933333333334</v>
+        <v>1.110304666666667</v>
       </c>
       <c r="H4">
-        <v>0.180718</v>
+        <v>3.330914</v>
       </c>
       <c r="I4">
-        <v>9.651065048389373E-05</v>
+        <v>0.002248635597361828</v>
       </c>
       <c r="J4">
-        <v>9.65189777332922E-05</v>
+        <v>0.002251019941945068</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1994553333333333</v>
+        <v>0.298136</v>
       </c>
       <c r="N4">
-        <v>0.598366</v>
+        <v>0.8944080000000001</v>
       </c>
       <c r="O4">
-        <v>0.001520901228493132</v>
+        <v>0.002454678613257035</v>
       </c>
       <c r="P4">
-        <v>0.001606614412143705</v>
+        <v>0.002535232047552183</v>
       </c>
       <c r="Q4">
-        <v>0.01201505630977778</v>
+        <v>0.3310217921013334</v>
       </c>
       <c r="R4">
-        <v>0.108135506788</v>
+        <v>2.979196128912</v>
       </c>
       <c r="S4">
-        <v>1.467831668836253E-07</v>
+        <v>5.519677709852537E-06</v>
       </c>
       <c r="T4">
-        <v>1.550687806716846E-07</v>
+        <v>5.706857896498192E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.06023933333333334</v>
+        <v>1.110304666666667</v>
       </c>
       <c r="H5">
-        <v>0.180718</v>
+        <v>3.330914</v>
       </c>
       <c r="I5">
-        <v>9.651065048389373E-05</v>
+        <v>0.002248635597361828</v>
       </c>
       <c r="J5">
-        <v>9.65189777332922E-05</v>
+        <v>0.002251019941945068</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.989489</v>
+        <v>11.5773025</v>
       </c>
       <c r="N5">
-        <v>41.978978</v>
+        <v>23.154605</v>
       </c>
       <c r="O5">
-        <v>0.1600505690775031</v>
+        <v>0.0953207826158438</v>
       </c>
       <c r="P5">
-        <v>0.1127136753456305</v>
+        <v>0.06563257109105912</v>
       </c>
       <c r="Q5">
-        <v>1.264392824367333</v>
+        <v>12.85433299316167</v>
       </c>
       <c r="R5">
-        <v>7.586356946204</v>
+        <v>77.12599795897</v>
       </c>
       <c r="S5">
-        <v>1.54465845319872E-05</v>
+        <v>0.0002143417049583749</v>
       </c>
       <c r="T5">
-        <v>1.087900872092243E-05</v>
+        <v>0.0001477402263671015</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.06023933333333334</v>
+        <v>1.110304666666667</v>
       </c>
       <c r="H6">
-        <v>0.180718</v>
+        <v>3.330914</v>
       </c>
       <c r="I6">
-        <v>9.651065048389373E-05</v>
+        <v>0.002248635597361828</v>
       </c>
       <c r="J6">
-        <v>9.65189777332922E-05</v>
+        <v>0.002251019941945068</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.33994</v>
+        <v>0.3338006666666667</v>
       </c>
       <c r="N6">
-        <v>1.01982</v>
+        <v>1.001402</v>
       </c>
       <c r="O6">
-        <v>0.002592135065899242</v>
+        <v>0.00274832075816945</v>
       </c>
       <c r="P6">
-        <v>0.002738219601034138</v>
+        <v>0.002838510436940246</v>
       </c>
       <c r="Q6">
-        <v>0.02047775897333333</v>
+        <v>0.3706204379364445</v>
       </c>
       <c r="R6">
-        <v>0.18429983076</v>
+        <v>3.335583941428</v>
       </c>
       <c r="S6">
-        <v>2.501686413520466E-07</v>
+        <v>6.179971889788273E-06</v>
       </c>
       <c r="T6">
-        <v>2.642901567010782E-07</v>
+        <v>6.389543598971702E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.05812166666666668</v>
+        <v>0.05812166666666666</v>
       </c>
       <c r="H7">
         <v>0.174365</v>
       </c>
       <c r="I7">
-        <v>9.311789402065168E-05</v>
+        <v>0.0001177104380161106</v>
       </c>
       <c r="J7">
-        <v>9.3125928532108E-05</v>
+        <v>0.0001178352524794251</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.37432</v>
+        <v>13.00733333333333</v>
       </c>
       <c r="N7">
-        <v>40.12296000000001</v>
+        <v>39.022</v>
       </c>
       <c r="O7">
-        <v>0.1019828318366699</v>
+        <v>0.1070948256796854</v>
       </c>
       <c r="P7">
-        <v>0.1077302617359031</v>
+        <v>0.1106092800596386</v>
       </c>
       <c r="Q7">
-        <v>0.7773377689333336</v>
+        <v>0.7560078922222222</v>
       </c>
       <c r="R7">
-        <v>6.996039920400002</v>
+        <v>6.804071029999999</v>
       </c>
       <c r="S7">
-        <v>9.496426526892968E-06</v>
+        <v>1.260617884001477E-05</v>
       </c>
       <c r="T7">
-        <v>1.0032480655163E-05</v>
+        <v>1.303367244239496E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.05812166666666668</v>
+        <v>0.05812166666666666</v>
       </c>
       <c r="H8">
         <v>0.174365</v>
       </c>
       <c r="I8">
-        <v>9.311789402065168E-05</v>
+        <v>0.0001177104380161106</v>
       </c>
       <c r="J8">
-        <v>9.3125928532108E-05</v>
+        <v>0.0001178352524794251</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>288.71896</v>
       </c>
       <c r="O8">
-        <v>0.7338535627914345</v>
+        <v>0.7923813923330444</v>
       </c>
       <c r="P8">
-        <v>0.7752112289052886</v>
+        <v>0.8183844063648099</v>
       </c>
       <c r="Q8">
-        <v>5.593609051155558</v>
+        <v>5.593609051155556</v>
       </c>
       <c r="R8">
-        <v>50.34248146040001</v>
+        <v>50.3424814604</v>
       </c>
       <c r="S8">
-        <v>6.833489828669046E-05</v>
+        <v>9.327156076733823E-05</v>
       </c>
       <c r="T8">
-        <v>7.219226550032152E-05</v>
+        <v>9.643453314922182E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.05812166666666668</v>
+        <v>0.05812166666666666</v>
       </c>
       <c r="H9">
         <v>0.174365</v>
       </c>
       <c r="I9">
-        <v>9.311789402065168E-05</v>
+        <v>0.0001177104380161106</v>
       </c>
       <c r="J9">
-        <v>9.3125928532108E-05</v>
+        <v>0.0001178352524794251</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1994553333333333</v>
+        <v>0.298136</v>
       </c>
       <c r="N9">
-        <v>0.598366</v>
+        <v>0.8944080000000001</v>
       </c>
       <c r="O9">
-        <v>0.001520901228493132</v>
+        <v>0.002454678613257035</v>
       </c>
       <c r="P9">
-        <v>0.001606614412143705</v>
+        <v>0.002535232047552183</v>
       </c>
       <c r="Q9">
-        <v>0.01159267639888889</v>
+        <v>0.01732816121333333</v>
       </c>
       <c r="R9">
-        <v>0.10433408759</v>
+        <v>0.15595345092</v>
       </c>
       <c r="S9">
-        <v>1.416231194107024E-07</v>
+        <v>2.889412947552646E-07</v>
       </c>
       <c r="T9">
-        <v>1.496174589239494E-07</v>
+        <v>2.987397084172414E-07</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.05812166666666668</v>
+        <v>0.05812166666666666</v>
       </c>
       <c r="H10">
         <v>0.174365</v>
       </c>
       <c r="I10">
-        <v>9.311789402065168E-05</v>
+        <v>0.0001177104380161106</v>
       </c>
       <c r="J10">
-        <v>9.3125928532108E-05</v>
+        <v>0.0001178352524794251</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.989489</v>
+        <v>11.5773025</v>
       </c>
       <c r="N10">
-        <v>41.978978</v>
+        <v>23.154605</v>
       </c>
       <c r="O10">
-        <v>0.1600505690775031</v>
+        <v>0.0953207826158438</v>
       </c>
       <c r="P10">
-        <v>0.1127136753456305</v>
+        <v>0.06563257109105912</v>
       </c>
       <c r="Q10">
-        <v>1.219944083161667</v>
+        <v>0.6728921168041666</v>
       </c>
       <c r="R10">
-        <v>7.319664498970001</v>
+        <v>4.037352700825</v>
       </c>
       <c r="S10">
-        <v>1.490357192930393E-05</v>
+        <v>1.122025107374943E-05</v>
       </c>
       <c r="T10">
-        <v>1.049656567482841E-05</v>
+        <v>7.733830585388768E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.05812166666666668</v>
+        <v>0.05812166666666666</v>
       </c>
       <c r="H11">
         <v>0.174365</v>
       </c>
       <c r="I11">
-        <v>9.311789402065168E-05</v>
+        <v>0.0001177104380161106</v>
       </c>
       <c r="J11">
-        <v>9.3125928532108E-05</v>
+        <v>0.0001178352524794251</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.33994</v>
+        <v>0.3338006666666667</v>
       </c>
       <c r="N11">
-        <v>1.01982</v>
+        <v>1.001402</v>
       </c>
       <c r="O11">
-        <v>0.002592135065899242</v>
+        <v>0.00274832075816945</v>
       </c>
       <c r="P11">
-        <v>0.002738219601034138</v>
+        <v>0.002838510436940246</v>
       </c>
       <c r="Q11">
-        <v>0.01975787936666667</v>
+        <v>0.01940105108111111</v>
       </c>
       <c r="R11">
-        <v>0.1778209143</v>
+        <v>0.17460945973</v>
       </c>
       <c r="S11">
-        <v>2.413741583536206E-07</v>
+        <v>3.235060402528951E-07</v>
       </c>
       <c r="T11">
-        <v>2.549992428711224E-07</v>
+        <v>3.344765940023371E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>270.7693163333333</v>
+        <v>357.7495016666667</v>
       </c>
       <c r="H12">
-        <v>812.307949</v>
+        <v>1073.248505</v>
       </c>
       <c r="I12">
-        <v>0.4338049809716108</v>
+        <v>0.724529301314403</v>
       </c>
       <c r="J12">
-        <v>0.4338424110609195</v>
+        <v>0.7252975571923297</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.37432</v>
+        <v>13.00733333333333</v>
       </c>
       <c r="N12">
-        <v>40.12296000000001</v>
+        <v>39.022</v>
       </c>
       <c r="O12">
-        <v>0.1019828318366699</v>
+        <v>0.1070948256796854</v>
       </c>
       <c r="P12">
-        <v>0.1077302617359031</v>
+        <v>0.1106092800596386</v>
       </c>
       <c r="Q12">
-        <v>3621.355482823227</v>
+        <v>4653.367018012223</v>
       </c>
       <c r="R12">
-        <v>32592.19934540904</v>
+        <v>41880.30316211</v>
       </c>
       <c r="S12">
-        <v>0.04424066042433756</v>
+        <v>0.07759333922409022</v>
       </c>
       <c r="T12">
-        <v>0.04673795649572812</v>
+        <v>0.08022464063005816</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>270.7693163333333</v>
+        <v>357.7495016666667</v>
       </c>
       <c r="H13">
-        <v>812.307949</v>
+        <v>1073.248505</v>
       </c>
       <c r="I13">
-        <v>0.4338049809716108</v>
+        <v>0.724529301314403</v>
       </c>
       <c r="J13">
-        <v>0.4338424110609195</v>
+        <v>0.7252975571923297</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>288.71896</v>
       </c>
       <c r="O13">
-        <v>0.7338535627914345</v>
+        <v>0.7923813923330444</v>
       </c>
       <c r="P13">
-        <v>0.7752112289052886</v>
+        <v>0.8183844063648099</v>
       </c>
       <c r="Q13">
-        <v>26058.74513722368</v>
+        <v>34429.68802057276</v>
       </c>
       <c r="R13">
-        <v>234528.7062350131</v>
+        <v>309867.1921851548</v>
       </c>
       <c r="S13">
-        <v>0.3183493308426871</v>
+        <v>0.5741035365615945</v>
       </c>
       <c r="T13">
-        <v>0.3363195086297688</v>
+        <v>0.5935722107806914</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>270.7693163333333</v>
+        <v>357.7495016666667</v>
       </c>
       <c r="H14">
-        <v>812.307949</v>
+        <v>1073.248505</v>
       </c>
       <c r="I14">
-        <v>0.4338049809716108</v>
+        <v>0.724529301314403</v>
       </c>
       <c r="J14">
-        <v>0.4338424110609195</v>
+        <v>0.7252975571923297</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1994553333333333</v>
+        <v>0.298136</v>
       </c>
       <c r="N14">
-        <v>0.598366</v>
+        <v>0.8944080000000001</v>
       </c>
       <c r="O14">
-        <v>0.001520901228493132</v>
+        <v>0.002454678613257035</v>
       </c>
       <c r="P14">
-        <v>0.001606614412143705</v>
+        <v>0.002535232047552183</v>
       </c>
       <c r="Q14">
-        <v>54.00638424570377</v>
+        <v>106.6580054288933</v>
       </c>
       <c r="R14">
-        <v>486.057458211334</v>
+        <v>959.9220488600401</v>
       </c>
       <c r="S14">
-        <v>0.0006597745284861626</v>
+        <v>0.001778486580614528</v>
       </c>
       <c r="T14">
-        <v>0.0006970174702096467</v>
+        <v>0.001838797611005307</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>270.7693163333333</v>
+        <v>357.7495016666667</v>
       </c>
       <c r="H15">
-        <v>812.307949</v>
+        <v>1073.248505</v>
       </c>
       <c r="I15">
-        <v>0.4338049809716108</v>
+        <v>0.724529301314403</v>
       </c>
       <c r="J15">
-        <v>0.4338424110609195</v>
+        <v>0.7252975571923297</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.989489</v>
+        <v>11.5773025</v>
       </c>
       <c r="N15">
-        <v>41.978978</v>
+        <v>23.154605</v>
       </c>
       <c r="O15">
-        <v>0.1600505690775031</v>
+        <v>0.0953207826158438</v>
       </c>
       <c r="P15">
-        <v>0.1127136753456305</v>
+        <v>0.06563257109105912</v>
       </c>
       <c r="Q15">
-        <v>5683.30958671602</v>
+        <v>4141.774200019254</v>
       </c>
       <c r="R15">
-        <v>34099.85752029612</v>
+        <v>24850.64520011553</v>
       </c>
       <c r="S15">
-        <v>0.06943073407316173</v>
+        <v>0.06906270002939939</v>
       </c>
       <c r="T15">
-        <v>0.04889997267148604</v>
+        <v>0.0476031434845971</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>270.7693163333333</v>
+        <v>357.7495016666667</v>
       </c>
       <c r="H16">
-        <v>812.307949</v>
+        <v>1073.248505</v>
       </c>
       <c r="I16">
-        <v>0.4338049809716108</v>
+        <v>0.724529301314403</v>
       </c>
       <c r="J16">
-        <v>0.4338424110609195</v>
+        <v>0.7252975571923297</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.33994</v>
+        <v>0.3338006666666667</v>
       </c>
       <c r="N16">
-        <v>1.01982</v>
+        <v>1.001402</v>
       </c>
       <c r="O16">
-        <v>0.002592135065899242</v>
+        <v>0.00274832075816945</v>
       </c>
       <c r="P16">
-        <v>0.002738219601034138</v>
+        <v>0.002838510436940246</v>
       </c>
       <c r="Q16">
-        <v>92.04532139435332</v>
+        <v>119.4170221560011</v>
       </c>
       <c r="R16">
-        <v>828.40789254918</v>
+        <v>1074.75319940401</v>
       </c>
       <c r="S16">
-        <v>0.001124481102938266</v>
+        <v>0.001991238918704382</v>
       </c>
       <c r="T16">
-        <v>0.001187955793726919</v>
+        <v>0.002058764685977692</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.161553</v>
+        <v>1.56904</v>
       </c>
       <c r="H17">
-        <v>0.323106</v>
+        <v>3.13808</v>
       </c>
       <c r="I17">
-        <v>0.0002588273185453217</v>
+        <v>0.003177685642155218</v>
       </c>
       <c r="J17">
-        <v>0.0001725664339993421</v>
+        <v>0.002120703404356576</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.37432</v>
+        <v>13.00733333333333</v>
       </c>
       <c r="N17">
-        <v>40.12296000000001</v>
+        <v>39.022</v>
       </c>
       <c r="O17">
-        <v>0.1019828318366699</v>
+        <v>0.1070948256796854</v>
       </c>
       <c r="P17">
-        <v>0.1077302617359031</v>
+        <v>0.1106092800596386</v>
       </c>
       <c r="Q17">
-        <v>2.16066151896</v>
+        <v>20.40902629333333</v>
       </c>
       <c r="R17">
-        <v>12.96396911376</v>
+        <v>122.45415776</v>
       </c>
       <c r="S17">
-        <v>2.639594290194373E-05</v>
+        <v>0.0003403136899114521</v>
       </c>
       <c r="T17">
-        <v>1.859062710158057E-05</v>
+        <v>0.0002345694767759056</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.161553</v>
+        <v>1.56904</v>
       </c>
       <c r="H18">
-        <v>0.323106</v>
+        <v>3.13808</v>
       </c>
       <c r="I18">
-        <v>0.0002588273185453217</v>
+        <v>0.003177685642155218</v>
       </c>
       <c r="J18">
-        <v>0.0001725664339993421</v>
+        <v>0.002120703404356576</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>288.71896</v>
       </c>
       <c r="O18">
-        <v>0.7338535627914345</v>
+        <v>0.7923813923330444</v>
       </c>
       <c r="P18">
-        <v>0.7752112289052886</v>
+        <v>0.8183844063648099</v>
       </c>
       <c r="Q18">
-        <v>15.54780471496</v>
+        <v>151.0038656661334</v>
       </c>
       <c r="R18">
-        <v>93.28682828976001</v>
+        <v>906.0231939968002</v>
       </c>
       <c r="S18">
-        <v>0.0001899413498622378</v>
+        <v>0.002517938973527676</v>
       </c>
       <c r="T18">
-        <v>0.0001337754373684334</v>
+        <v>0.001735550596650188</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.161553</v>
+        <v>1.56904</v>
       </c>
       <c r="H19">
-        <v>0.323106</v>
+        <v>3.13808</v>
       </c>
       <c r="I19">
-        <v>0.0002588273185453217</v>
+        <v>0.003177685642155218</v>
       </c>
       <c r="J19">
-        <v>0.0001725664339993421</v>
+        <v>0.002120703404356576</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1994553333333333</v>
+        <v>0.298136</v>
       </c>
       <c r="N19">
-        <v>0.598366</v>
+        <v>0.8944080000000001</v>
       </c>
       <c r="O19">
-        <v>0.001520901228493132</v>
+        <v>0.002454678613257035</v>
       </c>
       <c r="P19">
-        <v>0.001606614412143705</v>
+        <v>0.002535232047552183</v>
       </c>
       <c r="Q19">
-        <v>0.032222607466</v>
+        <v>0.46778730944</v>
       </c>
       <c r="R19">
-        <v>0.193335644796</v>
+        <v>2.80672385664</v>
       </c>
       <c r="S19">
-        <v>3.93650786743163E-07</v>
+        <v>7.800196985452362E-06</v>
       </c>
       <c r="T19">
-        <v>2.772477199155884E-07</v>
+        <v>5.376475234077808E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.161553</v>
+        <v>1.56904</v>
       </c>
       <c r="H20">
-        <v>0.323106</v>
+        <v>3.13808</v>
       </c>
       <c r="I20">
-        <v>0.0002588273185453217</v>
+        <v>0.003177685642155218</v>
       </c>
       <c r="J20">
-        <v>0.0001725664339993421</v>
+        <v>0.002120703404356576</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.989489</v>
+        <v>11.5773025</v>
       </c>
       <c r="N20">
-        <v>41.978978</v>
+        <v>23.154605</v>
       </c>
       <c r="O20">
-        <v>0.1600505690775031</v>
+        <v>0.0953207826158438</v>
       </c>
       <c r="P20">
-        <v>0.1127136753456305</v>
+        <v>0.06563257109105912</v>
       </c>
       <c r="Q20">
-        <v>3.390914916417</v>
+        <v>18.1652507146</v>
       </c>
       <c r="R20">
-        <v>13.563659665668</v>
+        <v>72.6610028584</v>
       </c>
       <c r="S20">
-        <v>4.142545962598292E-05</v>
+        <v>0.0003028994823173655</v>
       </c>
       <c r="T20">
-        <v>1.945059701735502E-05</v>
+        <v>0.0001391872169494841</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.161553</v>
+        <v>1.56904</v>
       </c>
       <c r="H21">
-        <v>0.323106</v>
+        <v>3.13808</v>
       </c>
       <c r="I21">
-        <v>0.0002588273185453217</v>
+        <v>0.003177685642155218</v>
       </c>
       <c r="J21">
-        <v>0.0001725664339993421</v>
+        <v>0.002120703404356576</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.33994</v>
+        <v>0.3338006666666667</v>
       </c>
       <c r="N21">
-        <v>1.01982</v>
+        <v>1.001402</v>
       </c>
       <c r="O21">
-        <v>0.002592135065899242</v>
+        <v>0.00274832075816945</v>
       </c>
       <c r="P21">
-        <v>0.002738219601034138</v>
+        <v>0.002838510436940246</v>
       </c>
       <c r="Q21">
-        <v>0.05491832681999999</v>
+        <v>0.5237465980266667</v>
       </c>
       <c r="R21">
-        <v>0.32950996092</v>
+        <v>3.142479588160001</v>
       </c>
       <c r="S21">
-        <v>6.709153684140015E-07</v>
+        <v>8.733299413272205E-06</v>
       </c>
       <c r="T21">
-        <v>4.725247920575624E-07</v>
+        <v>6.019638746920852E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>353.1236773333333</v>
+        <v>133.2811943333333</v>
       </c>
       <c r="H22">
-        <v>1059.371032</v>
+        <v>399.843583</v>
       </c>
       <c r="I22">
-        <v>0.5657465631653393</v>
+        <v>0.2699266670080639</v>
       </c>
       <c r="J22">
-        <v>0.5657953775988157</v>
+        <v>0.2702128842088893</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.37432</v>
+        <v>13.00733333333333</v>
       </c>
       <c r="N22">
-        <v>40.12296000000001</v>
+        <v>39.022</v>
       </c>
       <c r="O22">
-        <v>0.1019828318366699</v>
+        <v>0.1070948256796854</v>
       </c>
       <c r="P22">
-        <v>0.1077302617359031</v>
+        <v>0.1106092800596386</v>
       </c>
       <c r="Q22">
-        <v>4722.789060232747</v>
+        <v>1733.632921758444</v>
       </c>
       <c r="R22">
-        <v>42505.10154209473</v>
+        <v>15602.696295826</v>
       </c>
       <c r="S22">
-        <v>0.05769643661346473</v>
+        <v>0.02890774934952709</v>
       </c>
       <c r="T22">
-        <v>0.06095328411768455</v>
+        <v>0.02988805258518374</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>353.1236773333333</v>
+        <v>133.2811943333333</v>
       </c>
       <c r="H23">
-        <v>1059.371032</v>
+        <v>399.843583</v>
       </c>
       <c r="I23">
-        <v>0.5657465631653393</v>
+        <v>0.2699266670080639</v>
       </c>
       <c r="J23">
-        <v>0.5657953775988157</v>
+        <v>0.2702128842088893</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>288.71896</v>
       </c>
       <c r="O23">
-        <v>0.7338535627914345</v>
+        <v>0.7923813923330444</v>
       </c>
       <c r="P23">
-        <v>0.7752112289052886</v>
+        <v>0.8183844063648099</v>
       </c>
       <c r="Q23">
-        <v>33984.50029035186</v>
+        <v>12826.93593849263</v>
       </c>
       <c r="R23">
-        <v>305860.5026131668</v>
+        <v>115442.4234464337</v>
       </c>
       <c r="S23">
-        <v>0.4151751310158937</v>
+        <v>0.2138848682316677</v>
       </c>
       <c r="T23">
-        <v>0.4386109299773097</v>
+        <v>0.221138010835415</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>353.1236773333333</v>
+        <v>133.2811943333333</v>
       </c>
       <c r="H24">
-        <v>1059.371032</v>
+        <v>399.843583</v>
       </c>
       <c r="I24">
-        <v>0.5657465631653393</v>
+        <v>0.2699266670080639</v>
       </c>
       <c r="J24">
-        <v>0.5657953775988157</v>
+        <v>0.2702128842088893</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1994553333333333</v>
+        <v>0.298136</v>
       </c>
       <c r="N24">
-        <v>0.598366</v>
+        <v>0.8944080000000001</v>
       </c>
       <c r="O24">
-        <v>0.001520901228493132</v>
+        <v>0.002454678613257035</v>
       </c>
       <c r="P24">
-        <v>0.001606614412143705</v>
+        <v>0.002535232047552183</v>
       </c>
       <c r="Q24">
-        <v>70.43240077041244</v>
+        <v>39.73592215376267</v>
       </c>
       <c r="R24">
-        <v>633.891606933712</v>
+        <v>357.623299383864</v>
       </c>
       <c r="S24">
-        <v>0.0008604446429339319</v>
+        <v>0.0006625832166524481</v>
       </c>
       <c r="T24">
-        <v>0.0009090150079745467</v>
+        <v>0.0006850523637078834</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>353.1236773333333</v>
+        <v>133.2811943333333</v>
       </c>
       <c r="H25">
-        <v>1059.371032</v>
+        <v>399.843583</v>
       </c>
       <c r="I25">
-        <v>0.5657465631653393</v>
+        <v>0.2699266670080639</v>
       </c>
       <c r="J25">
-        <v>0.5657953775988157</v>
+        <v>0.2702128842088893</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.989489</v>
+        <v>11.5773025</v>
       </c>
       <c r="N25">
-        <v>41.978978</v>
+        <v>23.154605</v>
       </c>
       <c r="O25">
-        <v>0.1600505690775031</v>
+        <v>0.0953207826158438</v>
       </c>
       <c r="P25">
-        <v>0.1127136753456305</v>
+        <v>0.06563257109105912</v>
       </c>
       <c r="Q25">
-        <v>7411.885541027548</v>
+        <v>1543.036704358286</v>
       </c>
       <c r="R25">
-        <v>44471.31324616529</v>
+        <v>9258.220226149715</v>
       </c>
       <c r="S25">
-        <v>0.09054805938825414</v>
+        <v>0.02572962114809492</v>
       </c>
       <c r="T25">
-        <v>0.06377287650273132</v>
+        <v>0.01773476633256005</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>353.1236773333333</v>
+        <v>133.2811943333333</v>
       </c>
       <c r="H26">
-        <v>1059.371032</v>
+        <v>399.843583</v>
       </c>
       <c r="I26">
-        <v>0.5657465631653393</v>
+        <v>0.2699266670080639</v>
       </c>
       <c r="J26">
-        <v>0.5657953775988157</v>
+        <v>0.2702128842088893</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.33994</v>
+        <v>0.3338006666666667</v>
       </c>
       <c r="N26">
-        <v>1.01982</v>
+        <v>1.001402</v>
       </c>
       <c r="O26">
-        <v>0.002592135065899242</v>
+        <v>0.00274832075816945</v>
       </c>
       <c r="P26">
-        <v>0.002738219601034138</v>
+        <v>0.002838510436940246</v>
       </c>
       <c r="Q26">
-        <v>120.0408628726933</v>
+        <v>44.48935152259622</v>
       </c>
       <c r="R26">
-        <v>1080.36776585424</v>
+        <v>400.4041637033661</v>
       </c>
       <c r="S26">
-        <v>0.001466491504792856</v>
+        <v>0.000741845062121755</v>
       </c>
       <c r="T26">
-        <v>0.001549271993115589</v>
+        <v>0.0007670020920226583</v>
       </c>
     </row>
   </sheetData>
